--- a/src/data/ansioluettelo.xlsx
+++ b/src/data/ansioluettelo.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34880" yWindow="720" windowWidth="24920" windowHeight="16360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-35060" yWindow="2260" windowWidth="24920" windowHeight="16360" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Koulutus" sheetId="1" r:id="rId1"/>
     <sheet name="Kokemus" sheetId="2" r:id="rId2"/>
-    <sheet name="Taidot" sheetId="3" r:id="rId3"/>
-    <sheet name="en-koulutus" sheetId="4" r:id="rId4"/>
-    <sheet name="en-kokemus" sheetId="5" r:id="rId5"/>
-    <sheet name="en-taidot" sheetId="6" r:id="rId6"/>
+    <sheet name="trash" sheetId="7" r:id="rId3"/>
+    <sheet name="Taidot" sheetId="3" r:id="rId4"/>
+    <sheet name="en-koulutus" sheetId="4" r:id="rId5"/>
+    <sheet name="en-kokemus" sheetId="5" r:id="rId6"/>
+    <sheet name="en-taidot" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t>toimija</t>
   </si>
@@ -190,9 +191,6 @@
     <t>Editing photos, logos, and vector graphics with Adobe's image editing software.</t>
   </si>
   <si>
-    <t>Otan laadukkaita valokuvia, jotka on optimoitu nettiin ja printtiin, käyttäen Canonin järjestelmäkameraa.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Working safely with large dataset and data sources. eg. database migrations, editing web map data or automating image processing </t>
   </si>
   <si>
@@ -205,24 +203,12 @@
     <t>I take high quality photos optimized for web and print, using Canon's system camera</t>
   </si>
   <si>
-    <t>Suunnittelen ja koodaan upeita verkkosivuja ja web-sovelluksia. Tiedän verkon parhaat käytännöt ja käytän saumattomasti html, css, js, php ja React.js.</t>
-  </si>
-  <si>
     <t>Käytän sujuvasti Microsoft Office sovelluksia Word, Powerpoint ja Excel, sekä tunnen toimistotyössä käytettävät asiakirja standardit.</t>
   </si>
   <si>
     <t>Valokuvien, logojen ja vektori grafiikan muokkaaminen Adoben kuvankäsittely ohjelmilla.</t>
   </si>
   <si>
-    <t>Suurten tietokantojen ja tietolähteiden kanssa työskentely esimerkiksi. Tietokanta siirrot, web-karttatietojen käsittely tai kuvankäsittelyn automatisointi.</t>
-  </si>
-  <si>
-    <t>I have been working since 2013 to restaurant Fonda Del Sol at Jumbo shopping mall and shopping center Itis. I worked in the restaurant kitchen, I made lunches, preparation and a la carte dishes. Since then I have made the existing web pages and at the moment I'm the web administrator.</t>
-  </si>
-  <si>
-    <t>Start up company to search for sports clubs online. I am responsible for the development of this website, where the team has been up to 6 people. Currently I am a member of the Board and I decide on technical matters</t>
-  </si>
-  <si>
     <t>I rented Sup boards at Töölönlahti, SUP-Finland. My job was to guide the customers through the use of the Stand Up Padle board and to open / close the rental house. Customers ranged from individual joggers to large groups.</t>
   </si>
   <si>
@@ -230,6 +216,36 @@
   </si>
   <si>
     <t>Ravintola Fonda Del Sol</t>
+  </si>
+  <si>
+    <t>Perheyritys jossa olen työskennellyt 2013 lähtien ravintolan keittiössä ja auttanut johtoa teknisten asioiden kanssa. Ravintolat sijaitsevat kauppakeskus Jumbossa ja Itiksessä. Olen myös tehnyt ravintolan nykyiset verkkosivut.</t>
+  </si>
+  <si>
+    <t>A family run business where I have worked since 2013, in the restaurant's kitchen and helped with technical issues. Restaurants are located in Jumbo and Itis. I have also done the existing websites.</t>
+  </si>
+  <si>
+    <t>Startup company to search for sports clubs online. I have been responsible for the development  of the website, where the team has up to 6 people. I am currently a member of the Board and I decide on technical matters</t>
+  </si>
+  <si>
+    <t>Olen työskennellyt suurten tietokantojen ja tietolähteiden kanssa. Esimerkiksi tietokanta siirrot, web-karttatietojen käsittely tai kuvankäsittelyn automatisointi.</t>
+  </si>
+  <si>
+    <t>Otan laadukkaita valokuvia, jotka on optimoitu nettiin ja printtiin, käyttäen järjestelmäkameraa ja tarvittavia lisävarusteita.</t>
+  </si>
+  <si>
+    <t>Hakukoneoptimointi</t>
+  </si>
+  <si>
+    <t>Tiedän, miten hakukoneet indeksoivat verkkosivustoja ja voin tehdä teknistä ja sisällöllistä hakukoneoptimointi.</t>
+  </si>
+  <si>
+    <t>I know how search engines crawl websites and I can do technical and content search engine optimization.</t>
+  </si>
+  <si>
+    <t>Search engine optimization</t>
+  </si>
+  <si>
+    <t>Suunnittelen ja koodaan upeita verkkosivuja ja web-sovelluksia. Tiedän verkon parhaat käytännöt ja käytän sujuvasti html, css, scss, js, php, React.js ja Gatsby.js.</t>
   </si>
 </sst>
 </file>
@@ -306,12 +322,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -319,10 +337,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Avattu hyperlinkki" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlinkki" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Norm." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -660,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,13 +703,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
@@ -743,10 +764,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -764,7 +870,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
@@ -780,7 +886,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -788,7 +894,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -796,7 +902,7 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -804,7 +910,15 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -812,7 +926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -867,12 +981,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -899,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>44</v>
@@ -927,7 +1041,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>45</v>
@@ -941,7 +1055,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
@@ -952,12 +1066,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -975,7 +1089,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
@@ -991,7 +1105,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1004,10 +1118,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1015,7 +1129,15 @@
         <v>49</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/ansioluettelo.xlsx
+++ b/src/data/ansioluettelo.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35060" yWindow="2260" windowWidth="24920" windowHeight="16360" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="2560" yWindow="440" windowWidth="24920" windowHeight="16360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Koulutus" sheetId="1" r:id="rId1"/>
-    <sheet name="Kokemus" sheetId="2" r:id="rId2"/>
-    <sheet name="trash" sheetId="7" r:id="rId3"/>
-    <sheet name="Taidot" sheetId="3" r:id="rId4"/>
-    <sheet name="en-koulutus" sheetId="4" r:id="rId5"/>
-    <sheet name="en-kokemus" sheetId="5" r:id="rId6"/>
+    <sheet name="en-koulutus" sheetId="4" r:id="rId2"/>
+    <sheet name="Kokemus" sheetId="2" r:id="rId3"/>
+    <sheet name="en-kokemus" sheetId="5" r:id="rId4"/>
+    <sheet name="trash" sheetId="7" r:id="rId5"/>
+    <sheet name="Taidot" sheetId="3" r:id="rId6"/>
     <sheet name="en-taidot" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
   <si>
     <t>toimija</t>
   </si>
@@ -47,18 +47,9 @@
     <t>Suomen Liikemiesten Kauppaopisto</t>
   </si>
   <si>
-    <t>Suoritin Merkonomi tutkinnon Suomen Liikemiesten Kauppaopistossa pasilassa, suuntauksena Talous ja toimistopalvelut. Opintojen aikana suoritin kolme työharjoittelua palkanlaskenta yritys Silta Oy, Stockmann tavaratalo ja Ravintola-alan yritys Fonda Oy.</t>
-  </si>
-  <si>
     <t>Ylioppilastutkinto</t>
   </si>
   <si>
-    <t>Töölön aikuislukio</t>
-  </si>
-  <si>
-    <t>Opiskelin ylioppilaaksi Töölön yhteykoulun aikuislukiossa. Opintoni suunniteltiin tukemaan Merkonomi tutkintoa. Kirjoitin matematiikan, äidinkielen, englannin ja yhteiskuntaopin.</t>
-  </si>
-  <si>
     <t>Fonda Oy</t>
   </si>
   <si>
@@ -104,9 +95,6 @@
     <t>Backend kehittäjä</t>
   </si>
   <si>
-    <t>Teen suorituskykyisiä ja turvallisia node.js verkkopalveluita ja API rajapintoja.</t>
-  </si>
-  <si>
     <t>Microsoft office</t>
   </si>
   <si>
@@ -140,42 +128,18 @@
     <t>Helsinki Business College</t>
   </si>
   <si>
-    <t>16.8.2012 - 29.5.2015</t>
-  </si>
-  <si>
-    <t>16.8.2012 - 1.12.2018</t>
-  </si>
-  <si>
-    <t>16.8.2012 - 1.12.2015</t>
-  </si>
-  <si>
     <t>My studies were designed to support my other economics studies. I graduated in social sciences, mathematics, English and Finnish</t>
   </si>
   <si>
-    <t>Töölö high school for adults</t>
-  </si>
-  <si>
     <t>Restaurant Fonda Del Sol</t>
   </si>
   <si>
-    <t>I've made a globally recognized restaurant's website</t>
-  </si>
-  <si>
     <t>Sup-board rental</t>
   </si>
   <si>
     <t>Restaurant Sea Horse</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1.2013 - </t>
-  </si>
-  <si>
-    <t>6.1.2016 - 10.12.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7.2016 - 30.8.2016 </t>
-  </si>
-  <si>
     <t>Front-end developer</t>
   </si>
   <si>
@@ -185,9 +149,6 @@
     <t>Photography</t>
   </si>
   <si>
-    <t>I make high-performance and secure node.js web services and API interfaces.</t>
-  </si>
-  <si>
     <t>Editing photos, logos, and vector graphics with Adobe's image editing software.</t>
   </si>
   <si>
@@ -212,27 +173,12 @@
     <t>I rented Sup boards at Töölönlahti, SUP-Finland. My job was to guide the customers through the use of the Stand Up Padle board and to open / close the rental house. Customers ranged from individual joggers to large groups.</t>
   </si>
   <si>
-    <t>I design and code stunning websites and web applications. I know the best practices of the web and I use seamlessly html, css, js, php and React.js.</t>
-  </si>
-  <si>
     <t>Ravintola Fonda Del Sol</t>
   </si>
   <si>
-    <t>Perheyritys jossa olen työskennellyt 2013 lähtien ravintolan keittiössä ja auttanut johtoa teknisten asioiden kanssa. Ravintolat sijaitsevat kauppakeskus Jumbossa ja Itiksessä. Olen myös tehnyt ravintolan nykyiset verkkosivut.</t>
-  </si>
-  <si>
-    <t>A family run business where I have worked since 2013, in the restaurant's kitchen and helped with technical issues. Restaurants are located in Jumbo and Itis. I have also done the existing websites.</t>
-  </si>
-  <si>
-    <t>Startup company to search for sports clubs online. I have been responsible for the development  of the website, where the team has up to 6 people. I am currently a member of the Board and I decide on technical matters</t>
-  </si>
-  <si>
     <t>Olen työskennellyt suurten tietokantojen ja tietolähteiden kanssa. Esimerkiksi tietokanta siirrot, web-karttatietojen käsittely tai kuvankäsittelyn automatisointi.</t>
   </si>
   <si>
-    <t>Otan laadukkaita valokuvia, jotka on optimoitu nettiin ja printtiin, käyttäen järjestelmäkameraa ja tarvittavia lisävarusteita.</t>
-  </si>
-  <si>
     <t>Hakukoneoptimointi</t>
   </si>
   <si>
@@ -245,14 +191,74 @@
     <t>Search engine optimization</t>
   </si>
   <si>
-    <t>Suunnittelen ja koodaan upeita verkkosivuja ja web-sovelluksia. Tiedän verkon parhaat käytännöt ja käytän sujuvasti html, css, scss, js, php, React.js ja Gatsby.js.</t>
+    <t>Suunnittelen ja koodaan upeita verkkosivuja ja web-sovelluksia. Tiedän verkon parhaat käytännöt ja käytän sujuvasti HTML CSS, SCSS, Javascript, ES6, React ja Gatsby.js.</t>
+  </si>
+  <si>
+    <t>Perheyritys jossa olen työskennellyt ravintolan keittiössä ja auttanut johtoa IT- asioiden kanssa. Olen myös tehnyt ravintolan nykyiset verkkosivut.</t>
+  </si>
+  <si>
+    <t>Tein kansainvälisestikin tunnetulle ravintolalle uudet verkkosivut ja autoin henkiökuntaa IT- asioissa ja sosiaalisen median kanssa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start up yritys urheiluseurojen hakemiseen verkossa.  Olen vastannut verkkopalvelun kehittämisestä tiimissä, jossa on enimmillään ollut 6 työntekijää. </t>
+  </si>
+  <si>
+    <t>08/2018 - 10/2018</t>
+  </si>
+  <si>
+    <t>06/2013 -  09/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/2013 - </t>
+  </si>
+  <si>
+    <t>Töölön yhteykoulun aikuislukio</t>
+  </si>
+  <si>
+    <t>Opintoni suunniteltiin tukemaan Merkonomi tutkintoa. Kirjoitin matematiikan, äidinkielen, englannin ja yhteiskuntaopin.</t>
+  </si>
+  <si>
+    <t>08/2012 - 05/2015</t>
+  </si>
+  <si>
+    <t>08/2012 -12/2015</t>
+  </si>
+  <si>
+    <t>01/2014 - 06/2017</t>
+  </si>
+  <si>
+    <t>A family run business where I have worked in the restaurant's kitchen and helped magement with IT- issues. I have also done the existing website.</t>
+  </si>
+  <si>
+    <t>I've made a globally recognized restaurant's website and helped staff with IT- issues and social media usage.</t>
+  </si>
+  <si>
+    <t>Startup company to search for sports clubs online. I have been responsible for the development  of the website, where the team has had up to 6 people.</t>
+  </si>
+  <si>
+    <t>I design and code stunning websites and web applications. I know the best practices of the Web and I use fluently HTML CSS, SCSS, Javascript, ES6, React and Gatsby.js.</t>
+  </si>
+  <si>
+    <t>I make performant and secure web services and API interfaces, by using NodeJS, PHP, NGINX, Apache, MongoDB, MySQL, PostgreSQL. I use Wordpress, Drupal, Contentfull or Netlify CMS for content management. As Cloud service providers I use Amazon AWS or Digitalocean droplets.</t>
+  </si>
+  <si>
+    <t>Teen suorituskykyisiä ja turvallisia verkkopalveluita ja API rajapintoja, käyttäen NodeJS, PHP, NGINX, Apache, MongoDB, Mysql, PostgreSQL. Sisällönhallintaan käytän Wordpress, Drupal, Contentfull tai Netlify CMS. Pilvipalveluntarjoajina Amazon AWS tai Digitalocean droplet.</t>
+  </si>
+  <si>
+    <t>Otan laadukkaita valokuvia, jotka on optimoitu nettiin ja printtiin, käytän Canonin järjestelmäkameraa.</t>
+  </si>
+  <si>
+    <t>Olen työskennellyt suurten tietokantojen ja tietolähteiden kanssa. Esimerkiksi tietokannan siirto, web-karttatietojen käsittely (GeoJSON KML, SHP) tai kuvankäsittelyn automatisointi.</t>
+  </si>
+  <si>
+    <t>Opintojeni suuntauksena oli Talous ja toimistopalvelut ja suoritin paljon yrittämiseen liittyviä kursseja. Opintoihini kuului kolme työharjoittelua palkanlaskenta yritys Silta Oy, Stockmann tavaratalo ja Ravintola-alan yritys Fonda Oy.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -304,6 +310,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -322,14 +333,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -338,12 +351,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Avattu hyperlinkki" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Avattu hyperlinkki" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlinkki" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlinkki" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Norm." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -621,15 +637,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -638,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -649,24 +665,24 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -679,7 +695,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -689,7 +705,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -698,63 +714,33 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -767,79 +753,79 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>29</v>
+      <c r="D1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -849,76 +835,82 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -928,137 +920,174 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
+      <c r="D1" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>35</v>
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>36</v>
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1071,14 +1100,14 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -1086,58 +1115,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/ansioluettelo.xlsx
+++ b/src/data/ansioluettelo.xlsx
@@ -251,7 +251,7 @@
     <t>Olen työskennellyt suurten tietokantojen ja tietolähteiden kanssa. Esimerkiksi tietokannan siirto, web-karttatietojen käsittely (GeoJSON KML, SHP) tai kuvankäsittelyn automatisointi.</t>
   </si>
   <si>
-    <t>Opintojeni suuntauksena oli Talous ja toimistopalvelut ja suoritin paljon yrittämiseen liittyviä kursseja. Opintoihini kuului kolme työharjoittelua palkanlaskenta yritys Silta Oy, Stockmann tavaratalo ja Ravintola-alan yritys Fonda Oy.</t>
+    <t>Opintojeni suuntauksena oli Talous ja toimistopalvelut ja suoritin paljon yrittämiseen liittyviä kursseja. Opintoihini kuului kolme työharjoittelua palkanlaskenta yritys Silta Oy, Stockmann Oyj ja Ravintola-alan yritys Fonda Oy.</t>
   </si>
 </sst>
 </file>
@@ -638,7 +638,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/data/ansioluettelo.xlsx
+++ b/src/data/ansioluettelo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="440" windowWidth="24920" windowHeight="16360" tabRatio="500"/>
+    <workbookView xWindow="2560" yWindow="440" windowWidth="24920" windowHeight="16360" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Koulutus" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
   <si>
     <t>toimija</t>
   </si>
@@ -248,10 +248,13 @@
     <t>Otan laadukkaita valokuvia, jotka on optimoitu nettiin ja printtiin, käytän Canonin järjestelmäkameraa.</t>
   </si>
   <si>
-    <t>Olen työskennellyt suurten tietokantojen ja tietolähteiden kanssa. Esimerkiksi tietokannan siirto, web-karttatietojen käsittely (GeoJSON KML, SHP) tai kuvankäsittelyn automatisointi.</t>
-  </si>
-  <si>
     <t>Opintojeni suuntauksena oli Talous ja toimistopalvelut ja suoritin paljon yrittämiseen liittyviä kursseja. Opintoihini kuului kolme työharjoittelua palkanlaskenta yritys Silta Oy, Stockmann Oyj ja Ravintola-alan yritys Fonda Oy.</t>
+  </si>
+  <si>
+    <t>01/2014 - 06/2018</t>
+  </si>
+  <si>
+    <t>Olen työskennellyt suurten tietokantojen ja tietolähteiden kanssa. Esimerkiksi tietokannan siirto, web-karttatietojen käsittely (GeoJSON KML, SHP) js kuvankäsittelyn automatisointi.</t>
   </si>
 </sst>
 </file>
@@ -637,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>61</v>
@@ -753,7 +756,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -811,7 +814,7 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1020,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1071,7 +1074,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">

--- a/src/data/ansioluettelo.xlsx
+++ b/src/data/ansioluettelo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="440" windowWidth="24920" windowHeight="16360" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="-37980" yWindow="920" windowWidth="24920" windowHeight="16360" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Koulutus" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
   <si>
     <t>toimija</t>
   </si>
@@ -252,16 +252,13 @@
   </si>
   <si>
     <t>01/2014 - 06/2018</t>
-  </si>
-  <si>
-    <t>Olen työskennellyt suurten tietokantojen ja tietolähteiden kanssa. Esimerkiksi tietokannan siirto, web-karttatietojen käsittely (GeoJSON KML, SHP) js kuvankäsittelyn automatisointi.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,11 +310,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -345,7 +337,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -354,7 +346,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Avattu hyperlinkki" xfId="2" builtinId="9" hidden="1"/>
@@ -1024,7 +1015,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1073,8 +1064,8 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>73</v>
+      <c r="B6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">

--- a/src/data/ansioluettelo.xlsx
+++ b/src/data/ansioluettelo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-37980" yWindow="920" windowWidth="24920" windowHeight="16360" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="-37980" yWindow="920" windowWidth="24920" windowHeight="16360" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Koulutus" sheetId="1" r:id="rId1"/>
@@ -194,9 +194,6 @@
     <t>Suunnittelen ja koodaan upeita verkkosivuja ja web-sovelluksia. Tiedän verkon parhaat käytännöt ja käytän sujuvasti HTML CSS, SCSS, Javascript, ES6, React ja Gatsby.js.</t>
   </si>
   <si>
-    <t>Perheyritys jossa olen työskennellyt ravintolan keittiössä ja auttanut johtoa IT- asioiden kanssa. Olen myös tehnyt ravintolan nykyiset verkkosivut.</t>
-  </si>
-  <si>
     <t>Tein kansainvälisestikin tunnetulle ravintolalle uudet verkkosivut ja autoin henkiökuntaa IT- asioissa ja sosiaalisen median kanssa.</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
     <t>01/2014 - 06/2017</t>
   </si>
   <si>
-    <t>A family run business where I have worked in the restaurant's kitchen and helped magement with IT- issues. I have also done the existing website.</t>
-  </si>
-  <si>
     <t>I've made a globally recognized restaurant's website and helped staff with IT- issues and social media usage.</t>
   </si>
   <si>
@@ -252,6 +246,12 @@
   </si>
   <si>
     <t>01/2014 - 06/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perheyritys jossa olen työskennellyt ravintolan keittiössä ja auttanut johtoa IT- asioiden kanssa. </t>
+  </si>
+  <si>
+    <t>A family run business where I have worked in the restaurant's kitchen and helped magement with IT- issues.</t>
   </si>
 </sst>
 </file>
@@ -659,10 +659,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -670,13 +670,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -728,13 +728,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -747,7 +747,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -774,10 +774,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -788,10 +788,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -802,10 +802,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -819,7 +819,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -859,10 +859,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -873,10 +873,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -887,10 +887,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -904,7 +904,7 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1014,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="225" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1041,7 +1041,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
@@ -1073,7 +1073,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1112,7 +1112,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
@@ -1120,7 +1120,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">

--- a/src/data/ansioluettelo.xlsx
+++ b/src/data/ansioluettelo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-37980" yWindow="920" windowWidth="24920" windowHeight="16360" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-37980" yWindow="920" windowWidth="24920" windowHeight="16360" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Koulutus" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>toimija</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Search engine optimization</t>
   </si>
   <si>
-    <t>Suunnittelen ja koodaan upeita verkkosivuja ja web-sovelluksia. Tiedän verkon parhaat käytännöt ja käytän sujuvasti HTML CSS, SCSS, Javascript, ES6, React ja Gatsby.js.</t>
-  </si>
-  <si>
     <t>Tein kansainvälisestikin tunnetulle ravintolalle uudet verkkosivut ja autoin henkiökuntaa IT- asioissa ja sosiaalisen median kanssa.</t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>A family run business where I have worked in the restaurant's kitchen and helped magement with IT- issues.</t>
+  </si>
+  <si>
+    <t>Suunnittelen ja koodaan upeita verkkosivuja. Tiedän verkon parhaat käytännöt ja käytän sujuvasti HTML CSS, SCSS, Bootstrap, Javascript, ES6, React ja Gatsby.js.</t>
   </si>
 </sst>
 </file>
@@ -659,10 +659,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -670,13 +670,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -728,13 +728,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -774,10 +774,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -788,10 +788,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -802,10 +802,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -819,7 +819,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -831,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -859,10 +859,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -873,10 +873,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -887,10 +887,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -904,7 +904,7 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -914,10 +914,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1002,6 +1002,11 @@
       </c>
       <c r="B11" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1014,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScale="225" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="225" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,7 +1038,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
@@ -1041,7 +1046,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
@@ -1073,7 +1078,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1112,7 +1117,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
@@ -1120,7 +1125,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">

--- a/src/data/ansioluettelo.xlsx
+++ b/src/data/ansioluettelo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-37980" yWindow="920" windowWidth="24920" windowHeight="16360" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="1160" yWindow="620" windowWidth="24920" windowHeight="16360" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Koulutus" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
   <si>
     <t>toimija</t>
   </si>
@@ -230,9 +230,6 @@
     <t>I design and code stunning websites and web applications. I know the best practices of the Web and I use fluently HTML CSS, SCSS, Javascript, ES6, React and Gatsby.js.</t>
   </si>
   <si>
-    <t>I make performant and secure web services and API interfaces, by using NodeJS, PHP, NGINX, Apache, MongoDB, MySQL, PostgreSQL. I use Wordpress, Drupal, Contentfull or Netlify CMS for content management. As Cloud service providers I use Amazon AWS or Digitalocean droplets.</t>
-  </si>
-  <si>
     <t>Teen suorituskykyisiä ja turvallisia verkkopalveluita ja API rajapintoja, käyttäen NodeJS, PHP, NGINX, Apache, MongoDB, Mysql, PostgreSQL. Sisällönhallintaan käytän Wordpress, Drupal, Contentfull tai Netlify CMS. Pilvipalveluntarjoajina Amazon AWS tai Digitalocean droplet.</t>
   </si>
   <si>
@@ -252,6 +249,12 @@
   </si>
   <si>
     <t>Suunnittelen ja koodaan upeita verkkosivuja. Tiedän verkon parhaat käytännöt ja käytän sujuvasti HTML CSS, SCSS, Bootstrap, Javascript, ES6, React ja Gatsby.js.</t>
+  </si>
+  <si>
+    <t>Teen suorituskykyisiä ja turvallisia verkkopalveluita ja API rajapintoja, käyttäen NodeJS, PHP, NGINX, Apache, MongoDB, Mysql,  Sisällönhallintaan käytän Wordpress, Drupal, Contentfull tai Netlify CMS. Pilvipalveluntarjoajina Amazon AWS tai Digitalocean</t>
+  </si>
+  <si>
+    <t>I make performant and secure web services and API interfaces, by using NodeJS, PHP, NGINX, Apache, MongoDB, MySQL, I use Wordpress, Drupal, Contentfull or Netlify CMS for content management. As Cloud service providers I use Amazon AWS or Digitalocean droplets.</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>59</v>
@@ -746,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -774,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>56</v>
@@ -805,7 +808,7 @@
         <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -859,7 +862,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>56</v>
@@ -1006,7 +1009,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1019,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="225" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="225" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1038,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
@@ -1046,7 +1049,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
@@ -1078,7 +1081,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1099,7 +1102,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1125,7 +1128,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
